--- a/tumorboards/_Backoffice/backup/Kat_I.xlsx
+++ b/tumorboards/_Backoffice/backup/Kat_I.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marku\tumorboards\_Backoffice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\RAO_Projekte\App\tumorboards\_Backoffice\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4FB8C5-F550-438A-9ED0-418888DDC3D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -64,11 +63,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,11 +145,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -499,33 +513,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:O2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="93.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="27.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="31.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.125" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" style="5" customWidth="1"/>
+    <col min="3" max="3" width="5.625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="15.875" style="5" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.625" style="5" customWidth="1"/>
+    <col min="7" max="7" width="37.875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="9.5" style="5" customWidth="1"/>
+    <col min="9" max="9" width="8.875" style="5" customWidth="1"/>
+    <col min="10" max="10" width="17.75" style="6" customWidth="1"/>
+    <col min="11" max="11" width="19.875" style="6" customWidth="1"/>
+    <col min="12" max="12" width="19.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="21.375" style="6" customWidth="1"/>
+    <col min="14" max="14" width="5" style="5" customWidth="1"/>
+    <col min="15" max="15" width="10.875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" ht="15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -542,7 +556,7 @@
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="2" t="s">
@@ -551,23 +565,24 @@
       <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
       <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="N1" s="2"/>
-      <c r="O1" s="3" t="s">
+      <c r="O1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
+    <row r="2" spans="1:15" ht="30.75" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="A2:N7">
     <cfRule type="expression" dxfId="1" priority="1">
@@ -579,11 +594,14 @@
       <formula>$O2="Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O631" xr:uid="{00000000-0002-0000-0000-000000000000}">
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O631">
       <formula1>"Nein,Ja"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" sqref="O2:O4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" sqref="O2:O4">
+      <formula1>"Ja,Nein"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" sqref="O2">
       <formula1>"Ja,Nein"</formula1>
     </dataValidation>
   </dataValidations>

--- a/tumorboards/_Backoffice/backup/Kat_I.xlsx
+++ b/tumorboards/_Backoffice/backup/Kat_I.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\RAO_Projekte\App\tumorboards\_Backoffice\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="K:\RAO_Projekte\App\tumorboards\_Backoffice\backup\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -145,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -164,6 +164,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -514,94 +517,104 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="10.125" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="5" customWidth="1"/>
-    <col min="3" max="3" width="5.625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="15.875" style="5" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.625" style="5" customWidth="1"/>
-    <col min="7" max="7" width="37.875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="9.5" style="5" customWidth="1"/>
-    <col min="9" max="9" width="8.875" style="5" customWidth="1"/>
-    <col min="10" max="10" width="17.75" style="6" customWidth="1"/>
-    <col min="11" max="11" width="19.875" style="6" customWidth="1"/>
-    <col min="12" max="12" width="19.375" style="5" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="21.375" style="6" customWidth="1"/>
-    <col min="14" max="14" width="5" style="5" customWidth="1"/>
-    <col min="15" max="15" width="10.875" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="13.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.625" style="5" customWidth="1"/>
+    <col min="6" max="6" width="37.875" style="6" customWidth="1"/>
+    <col min="7" max="7" width="9.5" style="5" customWidth="1"/>
+    <col min="8" max="8" width="8.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="17.75" style="6" customWidth="1"/>
+    <col min="10" max="10" width="19.875" style="6" customWidth="1"/>
+    <col min="11" max="11" width="19.375" style="5" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="24.5" style="6" customWidth="1"/>
+    <col min="13" max="13" width="11.375" style="5" customWidth="1"/>
+    <col min="14" max="14" width="10.875" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="15">
+    <row r="1" spans="1:14" ht="15" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2"/>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
       <c r="D1" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
       <c r="H1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="J1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="N1" s="2"/>
-      <c r="O1" s="4" t="s">
+      <c r="M1" s="2"/>
+      <c r="N1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="30.75" customHeight="1"/>
+    <row r="2" spans="1:14" ht="30.75" customHeight="1">
+      <c r="A2"/>
+      <c r="B2"/>
+      <c r="C2"/>
+      <c r="D2"/>
+      <c r="E2"/>
+      <c r="F2"/>
+      <c r="G2"/>
+      <c r="H2"/>
+      <c r="I2"/>
+      <c r="J2"/>
+      <c r="K2"/>
+      <c r="L2" s="7"/>
+      <c r="M2"/>
+      <c r="N2"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="A2:N7">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>AND($O2="Nein", $A2&lt;&gt;"")</formula>
+  <conditionalFormatting sqref="A2:M7">
+    <cfRule type="expression" dxfId="1" priority="3">
+      <formula>AND($N2="Nein", $A2&lt;&gt;"")</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2:O7">
-    <cfRule type="expression" dxfId="0" priority="2">
-      <formula>$O2="Ja"</formula>
+  <conditionalFormatting sqref="A2:N7">
+    <cfRule type="expression" dxfId="0" priority="5">
+      <formula>$N2="Ja"</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O631">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N631">
       <formula1>"Nein,Ja"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" sqref="O2:O4">
-      <formula1>"Ja,Nein"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" sqref="O2">
+    <dataValidation type="list" allowBlank="1" errorTitle="Invalid Entry" error="Your entry is not in the list" promptTitle="List Selection" prompt="Please select from the list" sqref="N2:N4">
       <formula1>"Ja,Nein"</formula1>
     </dataValidation>
   </dataValidations>
